--- a/Code/Results/Cases/Case_5_211/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_211/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.07130447330968</v>
+        <v>13.70159836729662</v>
       </c>
       <c r="C2">
-        <v>12.56470578149053</v>
+        <v>7.027492222474809</v>
       </c>
       <c r="D2">
-        <v>6.07486288325113</v>
+        <v>9.216955118609004</v>
       </c>
       <c r="E2">
-        <v>8.50501555427385</v>
+        <v>13.49660647338201</v>
       </c>
       <c r="F2">
-        <v>23.29134794235468</v>
+        <v>31.84037344995381</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.690651544835715</v>
+        <v>9.917056146039144</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.11574743411663</v>
+        <v>16.50538171259721</v>
       </c>
       <c r="N2">
-        <v>11.85781558461069</v>
+        <v>17.78526280807522</v>
       </c>
       <c r="O2">
-        <v>16.48965464484089</v>
+        <v>23.84670232787553</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.78798844665726</v>
+        <v>13.23921161019979</v>
       </c>
       <c r="C3">
-        <v>11.78477353729783</v>
+        <v>6.61474959674558</v>
       </c>
       <c r="D3">
-        <v>5.915655489924157</v>
+        <v>9.207031294696169</v>
       </c>
       <c r="E3">
-        <v>8.391822671343611</v>
+        <v>13.51183840921207</v>
       </c>
       <c r="F3">
-        <v>22.7268153619116</v>
+        <v>31.85815364066604</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.720601188341758</v>
+        <v>9.941423444315348</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.39427341785906</v>
+        <v>16.37104002451241</v>
       </c>
       <c r="N3">
-        <v>12.03537823669412</v>
+        <v>17.84211868669211</v>
       </c>
       <c r="O3">
-        <v>16.2270172711952</v>
+        <v>23.89158391864096</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.95357476135538</v>
+        <v>12.94898574018271</v>
       </c>
       <c r="C4">
-        <v>11.27905920987465</v>
+        <v>6.347681334806357</v>
       </c>
       <c r="D4">
-        <v>5.818024135437502</v>
+        <v>9.202121101417852</v>
       </c>
       <c r="E4">
-        <v>8.326288391738476</v>
+        <v>13.52329630282902</v>
       </c>
       <c r="F4">
-        <v>22.39590424749466</v>
+        <v>31.87758136147765</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.741437766579059</v>
+        <v>9.957505084942525</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.93597334094534</v>
+        <v>16.29064116373495</v>
       </c>
       <c r="N4">
-        <v>12.14766618476464</v>
+        <v>17.87886909178363</v>
       </c>
       <c r="O4">
-        <v>16.08037576553476</v>
+        <v>23.92519417823688</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.60179290715076</v>
+        <v>12.82931357957168</v>
       </c>
       <c r="C5">
-        <v>11.06624427535558</v>
+        <v>6.235484225123223</v>
       </c>
       <c r="D5">
-        <v>5.778320463030302</v>
+        <v>9.20041941785751</v>
       </c>
       <c r="E5">
-        <v>8.300584775875585</v>
+        <v>13.52849510792066</v>
       </c>
       <c r="F5">
-        <v>22.26509383606099</v>
+        <v>31.88763557887645</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.750528856831761</v>
+        <v>9.964340431528109</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.74557514457386</v>
+        <v>16.25843208630272</v>
       </c>
       <c r="N5">
-        <v>12.19425082828048</v>
+        <v>17.89430915444407</v>
       </c>
       <c r="O5">
-        <v>16.0242458994522</v>
+        <v>23.94040852223292</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.54266800350293</v>
+        <v>12.80936313616835</v>
       </c>
       <c r="C6">
-        <v>11.03050060364614</v>
+        <v>6.216652997676183</v>
       </c>
       <c r="D6">
-        <v>5.771734176895283</v>
+        <v>9.200154978009264</v>
       </c>
       <c r="E6">
-        <v>8.296377329666669</v>
+        <v>13.52939035696519</v>
       </c>
       <c r="F6">
-        <v>22.24361908155067</v>
+        <v>31.88943405396449</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.752074228366657</v>
+        <v>9.965492473678287</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.71374699004586</v>
+        <v>16.25311809499796</v>
       </c>
       <c r="N6">
-        <v>12.20203626162045</v>
+        <v>17.896901021272</v>
       </c>
       <c r="O6">
-        <v>16.01514302235567</v>
+        <v>23.94302639897434</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.9488781822096</v>
+        <v>12.9473772216934</v>
       </c>
       <c r="C7">
-        <v>11.27621634263525</v>
+        <v>6.346181730231794</v>
       </c>
       <c r="D7">
-        <v>5.817488277230517</v>
+        <v>9.20209693799154</v>
       </c>
       <c r="E7">
-        <v>8.325937681599216</v>
+        <v>13.52336427113686</v>
       </c>
       <c r="F7">
-        <v>22.39412363461085</v>
+        <v>31.8777083071037</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.741557962572269</v>
+        <v>9.957596126811907</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.93341998083547</v>
+        <v>16.2902044994212</v>
       </c>
       <c r="N7">
-        <v>12.14829108757097</v>
+        <v>17.87907544176347</v>
       </c>
       <c r="O7">
-        <v>16.07960416310936</v>
+        <v>23.9253932241736</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.63841515656997</v>
+        <v>13.54358551243868</v>
       </c>
       <c r="C8">
-        <v>12.30135943506204</v>
+        <v>6.88804511493504</v>
       </c>
       <c r="D8">
-        <v>6.01997265648659</v>
+        <v>9.213288936088025</v>
       </c>
       <c r="E8">
-        <v>8.465166825821189</v>
+        <v>13.50142160930454</v>
       </c>
       <c r="F8">
-        <v>23.09349125981624</v>
+        <v>31.84473635418437</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.700460740697952</v>
+        <v>9.925225716085011</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.87027732896678</v>
+        <v>16.45864523580778</v>
       </c>
       <c r="N8">
-        <v>11.91836507020843</v>
+        <v>17.80448536051652</v>
       </c>
       <c r="O8">
-        <v>16.39603788525499</v>
+        <v>23.8609189049714</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.58629938513601</v>
+        <v>14.65525163213464</v>
       </c>
       <c r="C9">
-        <v>14.09871606102505</v>
+        <v>7.879333994089513</v>
       </c>
       <c r="D9">
-        <v>6.415904739572715</v>
+        <v>9.244541137733833</v>
       </c>
       <c r="E9">
-        <v>8.769378075881825</v>
+        <v>13.47508629247733</v>
       </c>
       <c r="F9">
-        <v>24.58539498999011</v>
+        <v>31.84768058907801</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.640017306964061</v>
+        <v>9.870620505705526</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.63867829376414</v>
+        <v>16.80419742723292</v>
       </c>
       <c r="N9">
-        <v>11.49314534332908</v>
+        <v>17.67276802439003</v>
       </c>
       <c r="O9">
-        <v>17.13413010495685</v>
+        <v>23.78267576154566</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.53412191159581</v>
+        <v>15.42820276905094</v>
       </c>
       <c r="C10">
-        <v>15.29009880247963</v>
+        <v>8.53974006297636</v>
       </c>
       <c r="D10">
-        <v>6.703502043784941</v>
+        <v>9.273056944259434</v>
       </c>
       <c r="E10">
-        <v>9.011427799095419</v>
+        <v>13.46589525205465</v>
       </c>
       <c r="F10">
-        <v>25.74909658464205</v>
+        <v>31.89108226027658</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.608957884709899</v>
+        <v>9.835892442084669</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.02970558476173</v>
+        <v>17.0655474603299</v>
       </c>
       <c r="N10">
-        <v>11.19611238516891</v>
+        <v>17.5847958208958</v>
       </c>
       <c r="O10">
-        <v>17.74955437892291</v>
+        <v>23.75476397642601</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.37396513105134</v>
+        <v>15.76878892440211</v>
       </c>
       <c r="C11">
-        <v>15.80435921607373</v>
+        <v>8.822712928729459</v>
       </c>
       <c r="D11">
-        <v>6.833145911792967</v>
+        <v>9.287207774848181</v>
       </c>
       <c r="E11">
-        <v>9.125456327846848</v>
+        <v>13.46391317374797</v>
       </c>
       <c r="F11">
-        <v>26.29199404128002</v>
+        <v>31.91975981593078</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.597976801494851</v>
+        <v>9.821260273851792</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.63034035409351</v>
+        <v>17.18566852561822</v>
       </c>
       <c r="N11">
-        <v>11.06428831039067</v>
+        <v>17.54667092570332</v>
       </c>
       <c r="O11">
-        <v>18.045572210232</v>
+        <v>23.74851803715001</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.68543337976068</v>
+        <v>15.89606419454946</v>
       </c>
       <c r="C12">
-        <v>15.99514494509879</v>
+        <v>8.927365604990358</v>
       </c>
       <c r="D12">
-        <v>6.882033802391114</v>
+        <v>9.292733219767184</v>
       </c>
       <c r="E12">
-        <v>9.169189516123549</v>
+        <v>13.46347804219937</v>
       </c>
       <c r="F12">
-        <v>26.49943184867955</v>
+        <v>31.93189976828937</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.594293447357393</v>
+        <v>9.815886801823526</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.85322415756968</v>
+        <v>17.23129868414029</v>
       </c>
       <c r="N12">
-        <v>11.01484391586999</v>
+        <v>17.53250530245571</v>
       </c>
       <c r="O12">
-        <v>18.15998147646841</v>
+        <v>23.7470819861285</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.61864356856118</v>
+        <v>15.86873030120435</v>
       </c>
       <c r="C13">
-        <v>15.95423111260546</v>
+        <v>8.904937991620347</v>
       </c>
       <c r="D13">
-        <v>6.871514567631143</v>
+        <v>9.291535840641556</v>
       </c>
       <c r="E13">
-        <v>9.159746352770322</v>
+        <v>13.46355773998241</v>
       </c>
       <c r="F13">
-        <v>26.45467522454958</v>
+        <v>31.92922835016706</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.595065231979786</v>
+        <v>9.817036633058361</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.80542411666294</v>
+        <v>17.22146560087803</v>
       </c>
       <c r="N13">
-        <v>11.02547152130198</v>
+        <v>17.53554406464108</v>
       </c>
       <c r="O13">
-        <v>18.1352384254579</v>
+        <v>23.74734992456337</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.39972082254553</v>
+        <v>15.77929454209841</v>
       </c>
       <c r="C14">
-        <v>15.82013431242748</v>
+        <v>8.831372892446671</v>
       </c>
       <c r="D14">
-        <v>6.837172249973977</v>
+        <v>9.287659028824089</v>
       </c>
       <c r="E14">
-        <v>9.129043256812212</v>
+        <v>13.46387105822343</v>
       </c>
       <c r="F14">
-        <v>26.30902337979266</v>
+        <v>31.92073294588644</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.597664119019754</v>
+        <v>9.820814841175848</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.64876824371681</v>
+        <v>17.18941987769654</v>
       </c>
       <c r="N14">
-        <v>11.06021097170251</v>
+        <v>17.54550007635293</v>
       </c>
       <c r="O14">
-        <v>18.05493833569529</v>
+        <v>23.74838126465533</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.26477234014201</v>
+        <v>15.72428845358632</v>
       </c>
       <c r="C15">
-        <v>15.73748228704902</v>
+        <v>8.785986380176464</v>
       </c>
       <c r="D15">
-        <v>6.816108871947598</v>
+        <v>9.28530601412052</v>
       </c>
       <c r="E15">
-        <v>9.110308449899517</v>
+        <v>13.46410402904824</v>
       </c>
       <c r="F15">
-        <v>26.22004645726267</v>
+        <v>31.91569585792097</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.599318546888169</v>
+        <v>9.823150898063622</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.55221952523888</v>
+        <v>17.16980854460861</v>
       </c>
       <c r="N15">
-        <v>11.08155172604242</v>
+        <v>17.55163374443551</v>
       </c>
       <c r="O15">
-        <v>18.00605364734641</v>
+        <v>23.74913402581249</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.47831315243886</v>
+        <v>15.40571287667445</v>
       </c>
       <c r="C16">
-        <v>15.25593564321222</v>
+        <v>8.520896501402122</v>
       </c>
       <c r="D16">
-        <v>6.695002570765764</v>
+        <v>9.272155649352282</v>
       </c>
       <c r="E16">
-        <v>9.004053715118511</v>
+        <v>13.46606897145912</v>
       </c>
       <c r="F16">
-        <v>25.71388106647945</v>
+        <v>31.88938755180861</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.609740744341131</v>
+        <v>9.836872128018744</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.98981075217432</v>
+        <v>17.05771912746847</v>
       </c>
       <c r="N16">
-        <v>11.20479374244723</v>
+        <v>17.58732540726872</v>
       </c>
       <c r="O16">
-        <v>17.7305324744123</v>
+        <v>23.75530211896363</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.98406501927084</v>
+        <v>15.20736817297315</v>
       </c>
       <c r="C17">
-        <v>14.95344616390825</v>
+        <v>8.353807336579123</v>
       </c>
       <c r="D17">
-        <v>6.620377911235859</v>
+        <v>9.2643883922138</v>
       </c>
       <c r="E17">
-        <v>8.939865970132052</v>
+        <v>13.46783710108349</v>
       </c>
       <c r="F17">
-        <v>25.406760425919</v>
+        <v>31.87553382904623</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.616956144950197</v>
+        <v>9.845588084620179</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.63659791243934</v>
+        <v>16.98924703479062</v>
       </c>
       <c r="N17">
-        <v>11.28124301313076</v>
+        <v>17.60970554788367</v>
       </c>
       <c r="O17">
-        <v>17.56562587045874</v>
+        <v>23.76073961165903</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.69542974954321</v>
+        <v>15.09225279293175</v>
       </c>
       <c r="C18">
-        <v>14.77685222761564</v>
+        <v>8.256059224662996</v>
       </c>
       <c r="D18">
-        <v>6.577346012532409</v>
+        <v>9.260031999635238</v>
       </c>
       <c r="E18">
-        <v>8.903316351743097</v>
+        <v>13.46906111426397</v>
       </c>
       <c r="F18">
-        <v>25.23139040215821</v>
+        <v>31.86840678231342</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.621401149627379</v>
+        <v>9.850711016601753</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.43040926611689</v>
+        <v>16.94998167635881</v>
       </c>
       <c r="N18">
-        <v>11.32552488769445</v>
+        <v>17.62275634831692</v>
       </c>
       <c r="O18">
-        <v>17.4722873567014</v>
+        <v>23.76447428955947</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.59695196089268</v>
+        <v>15.05310291956913</v>
       </c>
       <c r="C19">
-        <v>14.71661145282276</v>
+        <v>8.222681063392095</v>
       </c>
       <c r="D19">
-        <v>6.562758432566628</v>
+        <v>9.258576165841642</v>
       </c>
       <c r="E19">
-        <v>8.891005065394591</v>
+        <v>13.469511123422</v>
       </c>
       <c r="F19">
-        <v>25.17223552709442</v>
+        <v>31.8661382803012</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.622956143036999</v>
+        <v>9.85246440904166</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.36007517863681</v>
+        <v>16.93670840486608</v>
       </c>
       <c r="N19">
-        <v>11.34057127933749</v>
+        <v>17.62720578287464</v>
       </c>
       <c r="O19">
-        <v>17.44094395881854</v>
+        <v>23.76584301547682</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.03712887999457</v>
+        <v>15.2285900354206</v>
       </c>
       <c r="C20">
-        <v>14.98591660651416</v>
+        <v>8.371764250167773</v>
       </c>
       <c r="D20">
-        <v>6.628333460917498</v>
+        <v>9.265203747641372</v>
       </c>
       <c r="E20">
-        <v>8.946660703875295</v>
+        <v>13.46762745883891</v>
       </c>
       <c r="F20">
-        <v>25.43932240792336</v>
+        <v>31.87692154217528</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.616157375302062</v>
+        <v>9.844648899701726</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.67451119173355</v>
+        <v>16.99652404325765</v>
       </c>
       <c r="N20">
-        <v>11.27307274886882</v>
+        <v>17.60730469339525</v>
       </c>
       <c r="O20">
-        <v>17.58302399818145</v>
+        <v>23.76009792820844</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.46420113327953</v>
+        <v>15.8056108749562</v>
       </c>
       <c r="C21">
-        <v>15.85962881941284</v>
+        <v>8.853048622011947</v>
       </c>
       <c r="D21">
-        <v>6.847265253628105</v>
+        <v>9.288793236726212</v>
       </c>
       <c r="E21">
-        <v>9.138046570306399</v>
+        <v>13.46377047492574</v>
       </c>
       <c r="F21">
-        <v>26.35175518336343</v>
+        <v>31.92319354395939</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.596887689205215</v>
+        <v>9.819700548144983</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.69490522990383</v>
+        <v>17.19882887701694</v>
       </c>
       <c r="N21">
-        <v>11.04999426283562</v>
+        <v>17.54256839461802</v>
       </c>
       <c r="O21">
-        <v>18.07846159244225</v>
+        <v>23.74805310963628</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.35866852703753</v>
+        <v>16.17279174590525</v>
       </c>
       <c r="C22">
-        <v>16.40762418450582</v>
+        <v>9.153009879230108</v>
       </c>
       <c r="D22">
-        <v>6.989139286934998</v>
+        <v>9.30518141656262</v>
       </c>
       <c r="E22">
-        <v>9.266347740731074</v>
+        <v>13.46308788232199</v>
       </c>
       <c r="F22">
-        <v>26.95885978148117</v>
+        <v>31.96089505694702</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.587073440809571</v>
+        <v>9.804371062511388</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.33522230437284</v>
+        <v>17.33186400314051</v>
       </c>
       <c r="N22">
-        <v>10.90696700780259</v>
+        <v>17.50184127056336</v>
       </c>
       <c r="O22">
-        <v>18.41574702570702</v>
+        <v>23.74559715702053</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.88474108240132</v>
+        <v>15.97776276848817</v>
       </c>
       <c r="C23">
-        <v>16.11724409262288</v>
+        <v>8.994247231359957</v>
       </c>
       <c r="D23">
-        <v>6.913539640452464</v>
+        <v>9.296346804695769</v>
       </c>
       <c r="E23">
-        <v>9.197579653451223</v>
+        <v>13.46328428979947</v>
       </c>
       <c r="F23">
-        <v>26.633876650407</v>
+        <v>31.940092231645</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.592049459544461</v>
+        <v>9.81246349521086</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.99588342217703</v>
+        <v>17.26079715953213</v>
       </c>
       <c r="N23">
-        <v>10.98304951718808</v>
+        <v>17.52343366830398</v>
       </c>
       <c r="O23">
-        <v>18.23449584807527</v>
+        <v>23.74641205732079</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.01315268613817</v>
+        <v>15.21899900040457</v>
       </c>
       <c r="C24">
-        <v>14.97124509637134</v>
+        <v>8.363651182573459</v>
       </c>
       <c r="D24">
-        <v>6.624737156596103</v>
+        <v>9.264834785404759</v>
       </c>
       <c r="E24">
-        <v>8.943587705137585</v>
+        <v>13.46772159172883</v>
       </c>
       <c r="F24">
-        <v>25.42459739816272</v>
+        <v>31.87629154752505</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.61651757634223</v>
+        <v>9.845073156273228</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.65738032659184</v>
+        <v>16.99323379312544</v>
       </c>
       <c r="N24">
-        <v>11.27676549693287</v>
+        <v>17.60838954597402</v>
       </c>
       <c r="O24">
-        <v>17.57515373095184</v>
+        <v>23.76038613765767</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.82744882466735</v>
+        <v>14.3616346550579</v>
       </c>
       <c r="C25">
-        <v>13.63524231503527</v>
+        <v>7.620626358039356</v>
       </c>
       <c r="D25">
-        <v>6.30919822217367</v>
+        <v>9.235102014581944</v>
       </c>
       <c r="E25">
-        <v>8.683786147682024</v>
+        <v>13.48042503715314</v>
       </c>
       <c r="F25">
-        <v>24.16950120544508</v>
+        <v>31.83963885888508</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.654105557178105</v>
+        <v>9.884444702569386</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.13107489460303</v>
+        <v>16.70927034934614</v>
       </c>
       <c r="N25">
-        <v>11.60546259475899</v>
+        <v>17.70685048885841</v>
       </c>
       <c r="O25">
-        <v>16.9216831258197</v>
+        <v>23.79866109548798</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_211/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_211/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.70159836729662</v>
+        <v>19.07130447330965</v>
       </c>
       <c r="C2">
-        <v>7.027492222474809</v>
+        <v>12.56470578149049</v>
       </c>
       <c r="D2">
-        <v>9.216955118609004</v>
+        <v>6.074862883251156</v>
       </c>
       <c r="E2">
-        <v>13.49660647338201</v>
+        <v>8.505015554273848</v>
       </c>
       <c r="F2">
-        <v>31.84037344995381</v>
+        <v>23.29134794235472</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.917056146039144</v>
+        <v>5.690651544835713</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.50538171259721</v>
+        <v>14.11574743411662</v>
       </c>
       <c r="N2">
-        <v>17.78526280807522</v>
+        <v>11.85781558461076</v>
       </c>
       <c r="O2">
-        <v>23.84670232787553</v>
+        <v>16.48965464484096</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.23921161019979</v>
+        <v>17.78798844665723</v>
       </c>
       <c r="C3">
-        <v>6.61474959674558</v>
+        <v>11.78477353729794</v>
       </c>
       <c r="D3">
-        <v>9.207031294696169</v>
+        <v>5.915655489924225</v>
       </c>
       <c r="E3">
-        <v>13.51183840921207</v>
+        <v>8.391822671343654</v>
       </c>
       <c r="F3">
-        <v>31.85815364066604</v>
+        <v>22.72681536191167</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.941423444315348</v>
+        <v>5.720601188341762</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.37104002451241</v>
+        <v>13.39427341785906</v>
       </c>
       <c r="N3">
-        <v>17.84211868669211</v>
+        <v>12.03537823669415</v>
       </c>
       <c r="O3">
-        <v>23.89158391864096</v>
+        <v>16.22701727119524</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.94898574018271</v>
+        <v>16.95357476135533</v>
       </c>
       <c r="C4">
-        <v>6.347681334806357</v>
+        <v>11.27905920987473</v>
       </c>
       <c r="D4">
-        <v>9.202121101417852</v>
+        <v>5.818024135437276</v>
       </c>
       <c r="E4">
-        <v>13.52329630282902</v>
+        <v>8.326288391738489</v>
       </c>
       <c r="F4">
-        <v>31.87758136147765</v>
+        <v>22.39590424749472</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.957505084942525</v>
+        <v>5.74143776657918</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.29064116373495</v>
+        <v>12.93597334094535</v>
       </c>
       <c r="N4">
-        <v>17.87886909178363</v>
+        <v>12.1476661847647</v>
       </c>
       <c r="O4">
-        <v>23.92519417823688</v>
+        <v>16.08037576553489</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.82931357957168</v>
+        <v>16.60179290715082</v>
       </c>
       <c r="C5">
-        <v>6.235484225123223</v>
+        <v>11.06624427535553</v>
       </c>
       <c r="D5">
-        <v>9.20041941785751</v>
+        <v>5.778320463030261</v>
       </c>
       <c r="E5">
-        <v>13.52849510792066</v>
+        <v>8.30058477587554</v>
       </c>
       <c r="F5">
-        <v>31.88763557887645</v>
+        <v>22.2650938360608</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.964340431528109</v>
+        <v>5.75052885683176</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.25843208630272</v>
+        <v>12.74557514457385</v>
       </c>
       <c r="N5">
-        <v>17.89430915444407</v>
+        <v>12.19425082828042</v>
       </c>
       <c r="O5">
-        <v>23.94040852223292</v>
+        <v>16.02424589945211</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.80936313616835</v>
+        <v>16.54266800350294</v>
       </c>
       <c r="C6">
-        <v>6.216652997676183</v>
+        <v>11.0305006036461</v>
       </c>
       <c r="D6">
-        <v>9.200154978009264</v>
+        <v>5.77173417689526</v>
       </c>
       <c r="E6">
-        <v>13.52939035696519</v>
+        <v>8.296377329666566</v>
       </c>
       <c r="F6">
-        <v>31.88943405396449</v>
+        <v>22.24361908155042</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.965492473678287</v>
+        <v>5.752074228366597</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.25311809499796</v>
+        <v>12.71374699004584</v>
       </c>
       <c r="N6">
-        <v>17.896901021272</v>
+        <v>12.20203626162031</v>
       </c>
       <c r="O6">
-        <v>23.94302639897434</v>
+        <v>16.01514302235551</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.9473772216934</v>
+        <v>16.94887818220962</v>
       </c>
       <c r="C7">
-        <v>6.346181730231794</v>
+        <v>11.27621634263516</v>
       </c>
       <c r="D7">
-        <v>9.20209693799154</v>
+        <v>5.817488277230423</v>
       </c>
       <c r="E7">
-        <v>13.52336427113686</v>
+        <v>8.325937681599118</v>
       </c>
       <c r="F7">
-        <v>31.8777083071037</v>
+        <v>22.39412363461073</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.957596126811907</v>
+        <v>5.74155796257224</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.2902044994212</v>
+        <v>12.93341998083545</v>
       </c>
       <c r="N7">
-        <v>17.87907544176347</v>
+        <v>12.14829108757094</v>
       </c>
       <c r="O7">
-        <v>23.9253932241736</v>
+        <v>16.07960416310928</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.54358551243868</v>
+        <v>18.63841515657001</v>
       </c>
       <c r="C8">
-        <v>6.88804511493504</v>
+        <v>12.30135943506199</v>
       </c>
       <c r="D8">
-        <v>9.213288936088025</v>
+        <v>6.01997265648659</v>
       </c>
       <c r="E8">
-        <v>13.50142160930454</v>
+        <v>8.465166825821193</v>
       </c>
       <c r="F8">
-        <v>31.84473635418437</v>
+        <v>23.09349125981624</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.925225716085011</v>
+        <v>5.700460740697954</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.45864523580778</v>
+        <v>13.87027732896679</v>
       </c>
       <c r="N8">
-        <v>17.80448536051652</v>
+        <v>11.91836507020843</v>
       </c>
       <c r="O8">
-        <v>23.8609189049714</v>
+        <v>16.396037885255</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.65525163213464</v>
+        <v>21.58629938513601</v>
       </c>
       <c r="C9">
-        <v>7.879333994089513</v>
+        <v>14.09871606102516</v>
       </c>
       <c r="D9">
-        <v>9.244541137733833</v>
+        <v>6.41590473957274</v>
       </c>
       <c r="E9">
-        <v>13.47508629247733</v>
+        <v>8.769378075881875</v>
       </c>
       <c r="F9">
-        <v>31.84768058907801</v>
+        <v>24.58539498999011</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.870620505705526</v>
+        <v>5.640017306964065</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.80419742723292</v>
+        <v>15.63867829376414</v>
       </c>
       <c r="N9">
-        <v>17.67276802439003</v>
+        <v>11.49314534332912</v>
       </c>
       <c r="O9">
-        <v>23.78267576154566</v>
+        <v>17.13413010495685</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.42820276905094</v>
+        <v>23.53412191159585</v>
       </c>
       <c r="C10">
-        <v>8.53974006297636</v>
+        <v>15.29009880247949</v>
       </c>
       <c r="D10">
-        <v>9.273056944259434</v>
+        <v>6.703502043784843</v>
       </c>
       <c r="E10">
-        <v>13.46589525205465</v>
+        <v>9.011427799095376</v>
       </c>
       <c r="F10">
-        <v>31.89108226027658</v>
+        <v>25.74909658464206</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.835892442084669</v>
+        <v>5.608957884709925</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.0655474603299</v>
+        <v>17.02970558476173</v>
       </c>
       <c r="N10">
-        <v>17.5847958208958</v>
+        <v>11.19611238516891</v>
       </c>
       <c r="O10">
-        <v>23.75476397642601</v>
+        <v>17.74955437892296</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.76878892440211</v>
+        <v>24.37396513105134</v>
       </c>
       <c r="C11">
-        <v>8.822712928729459</v>
+        <v>15.80435921607373</v>
       </c>
       <c r="D11">
-        <v>9.287207774848181</v>
+        <v>6.833145911792812</v>
       </c>
       <c r="E11">
-        <v>13.46391317374797</v>
+        <v>9.125456327846676</v>
       </c>
       <c r="F11">
-        <v>31.91975981593078</v>
+        <v>26.29199404127997</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.821260273851792</v>
+        <v>5.597976801494797</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.18566852561822</v>
+        <v>17.63034035409356</v>
       </c>
       <c r="N11">
-        <v>17.54667092570332</v>
+        <v>11.06428831039067</v>
       </c>
       <c r="O11">
-        <v>23.74851803715001</v>
+        <v>18.045572210232</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.89606419454946</v>
+        <v>24.68543337976072</v>
       </c>
       <c r="C12">
-        <v>8.927365604990358</v>
+        <v>15.99514494509874</v>
       </c>
       <c r="D12">
-        <v>9.292733219767184</v>
+        <v>6.882033802391106</v>
       </c>
       <c r="E12">
-        <v>13.46347804219937</v>
+        <v>9.169189516123549</v>
       </c>
       <c r="F12">
-        <v>31.93189976828937</v>
+        <v>26.49943184867957</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.815886801823526</v>
+        <v>5.594293447357393</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.23129868414029</v>
+        <v>17.85322415756968</v>
       </c>
       <c r="N12">
-        <v>17.53250530245571</v>
+        <v>11.01484391586998</v>
       </c>
       <c r="O12">
-        <v>23.7470819861285</v>
+        <v>18.15998147646843</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.86873030120435</v>
+        <v>24.6186435685612</v>
       </c>
       <c r="C13">
-        <v>8.904937991620347</v>
+        <v>15.95423111260548</v>
       </c>
       <c r="D13">
-        <v>9.291535840641556</v>
+        <v>6.87151456763105</v>
       </c>
       <c r="E13">
-        <v>13.46355773998241</v>
+        <v>9.159746352770316</v>
       </c>
       <c r="F13">
-        <v>31.92922835016706</v>
+        <v>26.45467522454957</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.817036633058361</v>
+        <v>5.595065231979811</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.22146560087803</v>
+        <v>17.80542411666294</v>
       </c>
       <c r="N13">
-        <v>17.53554406464108</v>
+        <v>11.02547152130194</v>
       </c>
       <c r="O13">
-        <v>23.74734992456337</v>
+        <v>18.13523842545789</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.77929454209841</v>
+        <v>24.39972082254548</v>
       </c>
       <c r="C14">
-        <v>8.831372892446671</v>
+        <v>15.82013431242732</v>
       </c>
       <c r="D14">
-        <v>9.287659028824089</v>
+        <v>6.837172249973814</v>
       </c>
       <c r="E14">
-        <v>13.46387105822343</v>
+        <v>9.129043256812132</v>
       </c>
       <c r="F14">
-        <v>31.92073294588644</v>
+        <v>26.30902337979268</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.820814841175848</v>
+        <v>5.597664119019806</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.18941987769654</v>
+        <v>17.64876824371678</v>
       </c>
       <c r="N14">
-        <v>17.54550007635293</v>
+        <v>11.06021097170251</v>
       </c>
       <c r="O14">
-        <v>23.74838126465533</v>
+        <v>18.05493833569536</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.72428845358632</v>
+        <v>24.26477234014193</v>
       </c>
       <c r="C15">
-        <v>8.785986380176464</v>
+        <v>15.73748228704887</v>
       </c>
       <c r="D15">
-        <v>9.28530601412052</v>
+        <v>6.81610887194757</v>
       </c>
       <c r="E15">
-        <v>13.46410402904824</v>
+        <v>9.110308449899533</v>
       </c>
       <c r="F15">
-        <v>31.91569585792097</v>
+        <v>26.22004645726284</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.823150898063622</v>
+        <v>5.599318546888241</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.16980854460861</v>
+        <v>17.55221952523879</v>
       </c>
       <c r="N15">
-        <v>17.55163374443551</v>
+        <v>11.08155172604252</v>
       </c>
       <c r="O15">
-        <v>23.74913402581249</v>
+        <v>18.00605364734657</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.40571287667445</v>
+        <v>23.47831315243889</v>
       </c>
       <c r="C16">
-        <v>8.520896501402122</v>
+        <v>15.25593564321223</v>
       </c>
       <c r="D16">
-        <v>9.272155649352282</v>
+        <v>6.695002570765836</v>
       </c>
       <c r="E16">
-        <v>13.46606897145912</v>
+        <v>9.004053715118584</v>
       </c>
       <c r="F16">
-        <v>31.88938755180861</v>
+        <v>25.71388106647953</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.836872128018744</v>
+        <v>5.609740744341186</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.05771912746847</v>
+        <v>16.98981075217431</v>
       </c>
       <c r="N16">
-        <v>17.58732540726872</v>
+        <v>11.20479374244733</v>
       </c>
       <c r="O16">
-        <v>23.75530211896363</v>
+        <v>17.73053247441233</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.20736817297315</v>
+        <v>22.98406501927081</v>
       </c>
       <c r="C17">
-        <v>8.353807336579123</v>
+        <v>14.95344616390834</v>
       </c>
       <c r="D17">
-        <v>9.2643883922138</v>
+        <v>6.620377911235888</v>
       </c>
       <c r="E17">
-        <v>13.46783710108349</v>
+        <v>8.9398659701321</v>
       </c>
       <c r="F17">
-        <v>31.87553382904623</v>
+        <v>25.40676042591901</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.845588084620179</v>
+        <v>5.616956144950173</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.98924703479062</v>
+        <v>16.63659791243933</v>
       </c>
       <c r="N17">
-        <v>17.60970554788367</v>
+        <v>11.28124301313076</v>
       </c>
       <c r="O17">
-        <v>23.76073961165903</v>
+        <v>17.56562587045875</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.09225279293175</v>
+        <v>22.69542974954312</v>
       </c>
       <c r="C18">
-        <v>8.256059224662996</v>
+        <v>14.77685222761571</v>
       </c>
       <c r="D18">
-        <v>9.260031999635238</v>
+        <v>6.57734601253239</v>
       </c>
       <c r="E18">
-        <v>13.46906111426397</v>
+        <v>8.903316351743056</v>
       </c>
       <c r="F18">
-        <v>31.86840678231342</v>
+        <v>25.23139040215833</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.850711016601753</v>
+        <v>5.621401149627301</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.94998167635881</v>
+        <v>16.43040926611687</v>
       </c>
       <c r="N18">
-        <v>17.62275634831692</v>
+        <v>11.32552488769452</v>
       </c>
       <c r="O18">
-        <v>23.76447428955947</v>
+        <v>17.47228735670151</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.05310291956913</v>
+        <v>22.5969519608927</v>
       </c>
       <c r="C19">
-        <v>8.222681063392095</v>
+        <v>14.71661145282269</v>
       </c>
       <c r="D19">
-        <v>9.258576165841642</v>
+        <v>6.562758432566628</v>
       </c>
       <c r="E19">
-        <v>13.469511123422</v>
+        <v>8.891005065394564</v>
       </c>
       <c r="F19">
-        <v>31.8661382803012</v>
+        <v>25.17223552709442</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.85246440904166</v>
+        <v>5.622956143036944</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.93670840486608</v>
+        <v>16.36007517863682</v>
       </c>
       <c r="N19">
-        <v>17.62720578287464</v>
+        <v>11.34057127933749</v>
       </c>
       <c r="O19">
-        <v>23.76584301547682</v>
+        <v>17.44094395881854</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.2285900354206</v>
+        <v>23.03712887999457</v>
       </c>
       <c r="C20">
-        <v>8.371764250167773</v>
+        <v>14.98591660651399</v>
       </c>
       <c r="D20">
-        <v>9.265203747641372</v>
+        <v>6.628333460917444</v>
       </c>
       <c r="E20">
-        <v>13.46762745883891</v>
+        <v>8.946660703875263</v>
       </c>
       <c r="F20">
-        <v>31.87692154217528</v>
+        <v>25.43932240792339</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.844648899701726</v>
+        <v>5.616157375302065</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.99652404325765</v>
+        <v>16.67451119173354</v>
       </c>
       <c r="N20">
-        <v>17.60730469339525</v>
+        <v>11.27307274886886</v>
       </c>
       <c r="O20">
-        <v>23.76009792820844</v>
+        <v>17.58302399818152</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.8056108749562</v>
+        <v>24.46420113327953</v>
       </c>
       <c r="C21">
-        <v>8.853048622011947</v>
+        <v>15.85962881941287</v>
       </c>
       <c r="D21">
-        <v>9.288793236726212</v>
+        <v>6.847265253628105</v>
       </c>
       <c r="E21">
-        <v>13.46377047492574</v>
+        <v>9.138046570306402</v>
       </c>
       <c r="F21">
-        <v>31.92319354395939</v>
+        <v>26.35175518336342</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.819700548144983</v>
+        <v>5.596887689205245</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.19882887701694</v>
+        <v>17.69490522990383</v>
       </c>
       <c r="N21">
-        <v>17.54256839461802</v>
+        <v>11.04999426283556</v>
       </c>
       <c r="O21">
-        <v>23.74805310963628</v>
+        <v>18.07846159244223</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.17279174590525</v>
+        <v>25.35866852703749</v>
       </c>
       <c r="C22">
-        <v>9.153009879230108</v>
+        <v>16.40762418450581</v>
       </c>
       <c r="D22">
-        <v>9.30518141656262</v>
+        <v>6.989139286934934</v>
       </c>
       <c r="E22">
-        <v>13.46308788232199</v>
+        <v>9.266347740731026</v>
       </c>
       <c r="F22">
-        <v>31.96089505694702</v>
+        <v>26.95885978148113</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.804371062511388</v>
+        <v>5.587073440809537</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.33186400314051</v>
+        <v>18.33522230437283</v>
       </c>
       <c r="N22">
-        <v>17.50184127056336</v>
+        <v>10.90696700780252</v>
       </c>
       <c r="O22">
-        <v>23.74559715702053</v>
+        <v>18.41574702570701</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.97776276848817</v>
+        <v>24.88474108240129</v>
       </c>
       <c r="C23">
-        <v>8.994247231359957</v>
+        <v>16.117244092623</v>
       </c>
       <c r="D23">
-        <v>9.296346804695769</v>
+        <v>6.913539640452537</v>
       </c>
       <c r="E23">
-        <v>13.46328428979947</v>
+        <v>9.197579653451211</v>
       </c>
       <c r="F23">
-        <v>31.940092231645</v>
+        <v>26.63387665040699</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.81246349521086</v>
+        <v>5.592049459544462</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.26079715953213</v>
+        <v>17.99588342217703</v>
       </c>
       <c r="N23">
-        <v>17.52343366830398</v>
+        <v>10.98304951718804</v>
       </c>
       <c r="O23">
-        <v>23.74641205732079</v>
+        <v>18.23449584807526</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.21899900040457</v>
+        <v>23.01315268613812</v>
       </c>
       <c r="C24">
-        <v>8.363651182573459</v>
+        <v>14.97124509637133</v>
       </c>
       <c r="D24">
-        <v>9.264834785404759</v>
+        <v>6.624737156596098</v>
       </c>
       <c r="E24">
-        <v>13.46772159172883</v>
+        <v>8.943587705137565</v>
       </c>
       <c r="F24">
-        <v>31.87629154752505</v>
+        <v>25.42459739816273</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.845073156273228</v>
+        <v>5.616517576342236</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.99323379312544</v>
+        <v>16.65738032659183</v>
       </c>
       <c r="N24">
-        <v>17.60838954597402</v>
+        <v>11.27676549693284</v>
       </c>
       <c r="O24">
-        <v>23.76038613765767</v>
+        <v>17.57515373095189</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.3616346550579</v>
+        <v>20.8274488246674</v>
       </c>
       <c r="C25">
-        <v>7.620626358039356</v>
+        <v>13.63524231503532</v>
       </c>
       <c r="D25">
-        <v>9.235102014581944</v>
+        <v>6.309198222173629</v>
       </c>
       <c r="E25">
-        <v>13.48042503715314</v>
+        <v>8.683786147682126</v>
       </c>
       <c r="F25">
-        <v>31.83963885888508</v>
+        <v>24.16950120544497</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.884444702569386</v>
+        <v>5.654105557178077</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.70927034934614</v>
+        <v>15.13107489460301</v>
       </c>
       <c r="N25">
-        <v>17.70685048885841</v>
+        <v>11.60546259475892</v>
       </c>
       <c r="O25">
-        <v>23.79866109548798</v>
+        <v>16.9216831258196</v>
       </c>
     </row>
   </sheetData>
